--- a/StructureDefinition-profile-ImmunizationRecommendation.xlsx
+++ b/StructureDefinition-profile-ImmunizationRecommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7146712-06:00</t>
+    <t>2026-02-09T22:05:43.1581748-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-ImmunizationRecommendation.xlsx
+++ b/StructureDefinition-profile-ImmunizationRecommendation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="290">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1581748-06:00</t>
+    <t>2026-02-17T14:42:26.8281319-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,10 +595,40 @@
     <t>ImmunizationRecommendation.recommendation.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation.recommendation.extension:recommendation</t>
+  </si>
+  <si>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImmunizationRecommendation.recommendation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ImmunizationRecommendation.recommendation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ImmunizationRecommendation.recommendation` has is mapped to FHIR R4 element `ImmunizationRecommendation.recommendation`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ImmunizationRecommendation.recommendation.modifierExtension</t>
@@ -734,6 +764,9 @@
   </si>
   <si>
     <t>ImmunizationRecommendation.recommendation.dateCriterion.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>ImmunizationRecommendation.recommendation.dateCriterion.modifierExtension</t>
@@ -1187,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1198,7 +1231,7 @@
   <cols>
     <col min="1" max="1" width="66.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="66.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1206,7 +1239,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3064,11 +3097,11 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
@@ -3086,14 +3119,12 @@
         <v>134</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3130,19 +3161,17 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3163,7 +3192,7 @@
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3171,18 +3200,20 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -3191,26 +3222,24 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3258,7 +3287,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3267,7 +3296,7 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>139</v>
@@ -3279,7 +3308,7 @@
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3287,14 +3316,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3307,22 +3336,26 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3346,13 +3379,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3370,7 +3403,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3382,16 +3415,16 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3399,10 +3432,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3413,7 +3446,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3425,7 +3458,7 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>204</v>
@@ -3458,13 +3491,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3482,13 +3515,13 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -3497,13 +3530,13 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3511,10 +3544,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3525,7 +3558,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3537,13 +3570,13 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3570,13 +3603,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3594,13 +3627,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -3612,10 +3645,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3623,10 +3656,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3634,28 +3667,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3682,13 +3715,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3706,13 +3739,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -3724,10 +3757,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -3735,10 +3768,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3746,28 +3779,28 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3794,13 +3827,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -3818,13 +3851,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -3836,10 +3869,10 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -3847,10 +3880,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3870,16 +3903,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3906,13 +3939,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3930,7 +3963,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3945,13 +3978,13 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -3959,10 +3992,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3973,7 +4006,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -3985,13 +4018,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4042,28 +4075,28 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4071,21 +4104,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4097,17 +4130,15 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4156,19 +4187,19 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
@@ -4185,14 +4216,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4205,26 +4236,24 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O27" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4272,7 +4301,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4293,7 +4322,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4301,42 +4330,46 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4360,13 +4393,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4384,28 +4417,28 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4413,10 +4446,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4439,13 +4472,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4472,13 +4505,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4496,7 +4529,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>88</v>
@@ -4514,10 +4547,10 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4525,10 +4558,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4536,7 +4569,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -4551,13 +4584,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4608,10 +4641,10 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>88</v>
@@ -4626,10 +4659,10 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4637,10 +4670,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4666,10 +4699,10 @@
         <v>180</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4720,7 +4753,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4738,10 +4771,10 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -4749,10 +4782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4772,20 +4805,18 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4834,7 +4865,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4852,10 +4883,10 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -4863,10 +4894,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4886,19 +4917,19 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4948,7 +4979,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -4966,10 +4997,10 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -4977,10 +5008,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4991,7 +5022,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5003,15 +5034,17 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5060,13 +5093,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5078,10 +5111,10 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5089,10 +5122,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5115,13 +5148,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5172,7 +5205,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5187,15 +5220,127 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AN35" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ImmunizationRecommendation.xlsx
+++ b/StructureDefinition-profile-ImmunizationRecommendation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8281319-06:00</t>
+    <t>2026-02-20T11:59:20.8479049-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -617,7 +617,7 @@
     <t>recommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImmunizationRecommendation.recommendation|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImmunizationRecommendation.recommendation}
 </t>
   </si>
   <si>
@@ -1239,7 +1239,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.8359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.42578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-ImmunizationRecommendation.xlsx
+++ b/StructureDefinition-profile-ImmunizationRecommendation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="280">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8479049-06:00</t>
+    <t>2026-02-21T13:36:54.252037-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -595,40 +595,10 @@
     <t>ImmunizationRecommendation.recommendation.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ImmunizationRecommendation.recommendation.extension:recommendation</t>
-  </si>
-  <si>
-    <t>recommendation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ImmunizationRecommendation.recommendation}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ImmunizationRecommendation.recommendation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ImmunizationRecommendation.recommendation` has is mapped to FHIR R4 element `ImmunizationRecommendation.recommendation`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>ImmunizationRecommendation.recommendation.modifierExtension</t>
@@ -764,9 +734,6 @@
   </si>
   <si>
     <t>ImmunizationRecommendation.recommendation.dateCriterion.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>ImmunizationRecommendation.recommendation.dateCriterion.modifierExtension</t>
@@ -1220,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1231,7 +1198,7 @@
   <cols>
     <col min="1" max="1" width="66.98046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="66.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1239,7 +1206,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.42578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3097,11 +3064,11 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
@@ -3119,12 +3086,14 @@
         <v>134</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3161,17 +3130,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AC17" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3192,7 +3163,7 @@
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3200,20 +3171,18 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -3222,24 +3191,26 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3287,7 +3258,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3296,7 +3267,7 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>139</v>
@@ -3308,7 +3279,7 @@
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3316,14 +3287,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3336,26 +3307,22 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3379,13 +3346,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3403,7 +3370,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3415,16 +3382,16 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3432,10 +3399,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3446,7 +3413,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3458,7 +3425,7 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>204</v>
@@ -3491,14 +3458,14 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3515,13 +3482,13 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -3530,13 +3497,13 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3544,10 +3511,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3558,7 +3525,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3570,13 +3537,13 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3603,13 +3570,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3627,13 +3594,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -3645,10 +3612,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3656,10 +3623,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3667,28 +3634,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3715,13 +3682,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3739,13 +3706,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -3757,10 +3724,10 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -3768,10 +3735,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3779,28 +3746,28 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3827,13 +3794,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -3851,13 +3818,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -3869,10 +3836,10 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -3880,10 +3847,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3903,16 +3870,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3939,13 +3906,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3963,7 +3930,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3978,13 +3945,13 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -3992,10 +3959,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4006,7 +3973,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4018,13 +3985,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4075,28 +4042,28 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4104,21 +4071,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4130,15 +4097,17 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4187,19 +4156,19 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
@@ -4216,14 +4185,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4236,24 +4205,26 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4301,7 +4272,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4322,7 +4293,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4330,46 +4301,42 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4393,13 +4360,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4417,28 +4384,28 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4446,10 +4413,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4472,13 +4439,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4505,13 +4472,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4529,7 +4496,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>88</v>
@@ -4547,10 +4514,10 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4558,10 +4525,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4569,7 +4536,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -4584,13 +4551,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4641,10 +4608,10 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>88</v>
@@ -4659,10 +4626,10 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4670,10 +4637,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4699,10 +4666,10 @@
         <v>180</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4753,7 +4720,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4771,10 +4738,10 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -4782,10 +4749,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4805,18 +4772,20 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4865,7 +4834,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4883,10 +4852,10 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -4894,10 +4863,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4917,19 +4886,19 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4979,7 +4948,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -4997,10 +4966,10 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5008,10 +4977,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5022,7 +4991,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5034,17 +5003,15 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5093,13 +5060,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5111,10 +5078,10 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5122,10 +5089,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5148,13 +5115,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5205,7 +5172,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5220,127 +5187,15 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AN36" t="s" s="2">
         <v>77</v>
       </c>
     </row>
